--- a/metadata_templates/HP_manuscript_metadata_template.xlsx
+++ b/metadata_templates/HP_manuscript_metadata_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/ULS_Work/DigitalCollections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2759F48C-FB9B-D34B-BFD0-779D55278F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78065AEB-E3ED-194B-8EEF-F79A50292EBB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D52D2BB-D727-AC40-B376-C01811DB6281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{5BC5E1C4-B012-954E-9572-934211487BD1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{5BC5E1C4-B012-954E-9572-934211487BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>title</t>
   </si>
@@ -48,9 +48,6 @@
     <t>normalized_date_qualifier</t>
   </si>
   <si>
-    <t>abstract</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -91,6 +88,30 @@
   </si>
   <si>
     <t>source_citation</t>
+  </si>
+  <si>
+    <t>subject_location</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>rights_holder</t>
+  </si>
+  <si>
+    <t>depositor</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>source_id</t>
   </si>
 </sst>
 </file>
@@ -446,41 +467,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF565F6-0AA2-6045-BDB2-0D376AF771A0}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -489,31 +535,49 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -522,6 +586,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8D8FC47DE7C204786C404ECD83547D9" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cf0c2705b82825f0346af526cda3b2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f1a2e88-5503-46a0-aef8-44b94e11b624" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="749d39a5ac9e1b1b5c892e0bcc9b56c2" ns2:_="">
     <xsd:import namespace="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
@@ -667,12 +737,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -683,6 +747,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE04D26-0F78-42B0-8B91-19CD11EAF985}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{542B4DC3-755E-4A14-8750-25BF73587E37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -700,22 +780,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE04D26-0F78-42B0-8B91-19CD11EAF985}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43179E9D-8E53-46CD-8BA7-E72C1E77F56D}">
   <ds:schemaRefs>

--- a/metadata_templates/HP_manuscript_metadata_template.xlsx
+++ b/metadata_templates/HP_manuscript_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D52D2BB-D727-AC40-B376-C01811DB6281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F8D20-51D4-8C49-B919-28B9FA9D80F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{5BC5E1C4-B012-954E-9572-934211487BD1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{5BC5E1C4-B012-954E-9572-934211487BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>title</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>source_id</t>
+  </si>
+  <si>
+    <t>language</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF565F6-0AA2-6045-BDB2-0D376AF771A0}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,21 +489,23 @@
     <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="14" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,42 +546,45 @@
         <v>6</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -592,6 +600,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8D8FC47DE7C204786C404ECD83547D9" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cf0c2705b82825f0346af526cda3b2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f1a2e88-5503-46a0-aef8-44b94e11b624" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="749d39a5ac9e1b1b5c892e0bcc9b56c2" ns2:_="">
     <xsd:import namespace="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
@@ -737,15 +754,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE04D26-0F78-42B0-8B91-19CD11EAF985}">
   <ds:schemaRefs>
@@ -763,6 +771,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43179E9D-8E53-46CD-8BA7-E72C1E77F56D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{542B4DC3-755E-4A14-8750-25BF73587E37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -778,12 +794,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43179E9D-8E53-46CD-8BA7-E72C1E77F56D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/metadata_templates/HP_manuscript_metadata_template.xlsx
+++ b/metadata_templates/HP_manuscript_metadata_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelbolam/Documents/GitHub/MAD_Islandora_Metadata/islandora_metadata/metadata_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/Documents/GitHub/islandora_metadata/metadata_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492F8D20-51D4-8C49-B919-28B9FA9D80F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{492F8D20-51D4-8C49-B919-28B9FA9D80F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE8B597-2E7A-47E7-881F-ED8431D108E5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{5BC5E1C4-B012-954E-9572-934211487BD1}"/>
+    <workbookView xWindow="28680" yWindow="-4575" windowWidth="29040" windowHeight="15840" xr2:uid="{5BC5E1C4-B012-954E-9572-934211487BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>normalized_date_qualifier</t>
   </si>
   <si>
-    <t>subject</t>
-  </si>
-  <si>
     <t>subject_name</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>source_citation</t>
   </si>
   <si>
-    <t>subject_location</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>language</t>
+  </si>
+  <si>
+    <t>subject_topic</t>
+  </si>
+  <si>
+    <t>subject_geographic</t>
   </si>
 </sst>
 </file>
@@ -472,57 +472,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF565F6-0AA2-6045-BDB2-0D376AF771A0}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="29.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="17" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -534,58 +507,58 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -594,21 +567,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8D8FC47DE7C204786C404ECD83547D9" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cf0c2705b82825f0346af526cda3b2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f1a2e88-5503-46a0-aef8-44b94e11b624" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="749d39a5ac9e1b1b5c892e0bcc9b56c2" ns2:_="">
     <xsd:import namespace="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
@@ -754,31 +712,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE04D26-0F78-42B0-8B91-19CD11EAF985}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43179E9D-8E53-46CD-8BA7-E72C1E77F56D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{542B4DC3-755E-4A14-8750-25BF73587E37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -794,4 +743,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43179E9D-8E53-46CD-8BA7-E72C1E77F56D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAE04D26-0F78-42B0-8B91-19CD11EAF985}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/metadata_templates/HP_manuscript_metadata_template.xlsx
+++ b/metadata_templates/HP_manuscript_metadata_template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/mrbst20_pitt_edu/Documents/Documents/GitHub/islandora_metadata/metadata_templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/str51_pitt_edu/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{492F8D20-51D4-8C49-B919-28B9FA9D80F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFE8B597-2E7A-47E7-881F-ED8431D108E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71ABCF3F-A2F0-42FF-ADED-CF78E11146AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4575" windowWidth="29040" windowHeight="15840" xr2:uid="{5BC5E1C4-B012-954E-9572-934211487BD1}"/>
+    <workbookView xWindow="5292" yWindow="924" windowWidth="15696" windowHeight="10200" xr2:uid="{5BC5E1C4-B012-954E-9572-934211487BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,9 +78,6 @@
     <t>source_subseries</t>
   </si>
   <si>
-    <t>source_otherlevel</t>
-  </si>
-  <si>
     <t>source_container</t>
   </si>
   <si>
@@ -115,14 +112,25 @@
   </si>
   <si>
     <t>subject_geographic</t>
+  </si>
+  <si>
+    <t>source_other_level</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -150,12 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,78 +481,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF565F6-0AA2-6045-BDB2-0D376AF771A0}">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="18.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.296875" customWidth="1"/>
+    <col min="2" max="2" width="43.59765625" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>12</v>
@@ -552,13 +568,13 @@
         <v>13</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -567,9 +583,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A8D8FC47DE7C204786C404ECD83547D9" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3cf0c2705b82825f0346af526cda3b2b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7f1a2e88-5503-46a0-aef8-44b94e11b624" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="749d39a5ac9e1b1b5c892e0bcc9b56c2" ns2:_="">
-    <xsd:import namespace="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010055C9D96A2DC5254B827CE73D4DAA0E2B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c3a22f41b17e6b5349257a5ce189c60">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ee2642b2-f2dc-4604-abf5-f3db2d26ad74" xmlns:ns3="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78a5aa5b4e1209e8bf454b7ffe0aff24" ns2:_="" ns3:_="">
+    <xsd:import namespace="ee2642b2-f2dc-4604-abf5-f3db2d26ad74"/>
+    <xsd:import namespace="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -580,6 +606,15 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -587,7 +622,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f1a2e88-5503-46a0-aef8-44b94e11b624" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ee2642b2-f2dc-4604-abf5-f3db2d26ad74" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -611,6 +646,81 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7b90debd-ee09-4e04-a4c4-812a7ed26ded" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9f30e8c8-65c3-40ee-a51e-2690cce48dc3}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -712,45 +822,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee2642b2-f2dc-4604-abf5-f3db2d26ad74">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="2c01d2fb-b47e-4e9a-9661-e0b9a6ff4f17" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{542B4DC3-755E-4A14-8750-25BF73587E37}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7f1a2e88-5503-46a0-aef8-44b94e11b624"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43179E9D-8E53-46CD-8BA7-E72C1E77F56D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97601444-DF46-4F02-B1A5-583EC725025F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
